--- a/biology/Zoologie/Holacanthus_bermudensis/Holacanthus_bermudensis.xlsx
+++ b/biology/Zoologie/Holacanthus_bermudensis/Holacanthus_bermudensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Poisson-ange bleu (Holacanthus bermudensis) est un poisson appartenant à la famille des Pomacanthidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Problème de synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour certains auteurs et sites (ITIS, Florida Museum of natural History...), ce poisson est le même que Holacanthus isabelita.
 Pour d'autres (FishBase...), ce poisson est différent de Holacanthus isabelita (étrangement nommé Demoiselle bleue dans ce cas là).
